--- a/3_Programmation/Raspberry_PI/programs.xlsx
+++ b/3_Programmation/Raspberry_PI/programs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syncthing_Olivier\Robot_youpi\3_Programmation\Raspberry_PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.69\Partage_Samba\Robot_YOUPI\3_Programmation\Raspberry_PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B2C65-E04A-45E3-A825-E6973CD55B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B9988-BB89-405B-9EA6-0691F85181E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Copy me for new programs" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy me for new programs" sheetId="8" r:id="rId1"/>
     <sheet name="Parameters" sheetId="3" r:id="rId2"/>
-    <sheet name="Tests_program" sheetId="6" r:id="rId3"/>
-    <sheet name="Turn off myself" sheetId="5" r:id="rId4"/>
+    <sheet name="Tests_program" sheetId="7" r:id="rId3"/>
+    <sheet name="Turn off myself" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,28 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B17151CA-6A87-4AA5-B035-E1DD3AE5C46E}</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B17151CA-6A87-4AA5-B035-E1DD3AE5C46E}">
-      <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>Olivier</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B0D1283B-9952-434E-B6EB-B72876B695B0}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6A932716-1986-43C4-B357-D782F3E4E4F8}">
       <text>
         <r>
           <rPr>
@@ -86,7 +68,65 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{226EACF2-B6B1-4D26-B409-170E49317D6A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{616B4006-90A7-4392-A014-CCF76B9B9A35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olivier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Olivier</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F1AB8444-048A-4451-9BAE-F08948E41B04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olivier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of data (used by the program)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5A92D1A8-16AF-4E75-AFCE-8AEFF85F712C}">
       <text>
         <r>
           <rPr>
@@ -117,15 +157,55 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={48C806BC-EA8E-400D-8E90-CA3F507908B3}</author>
+    <author>Olivier</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{48C806BC-EA8E-400D-8E90-CA3F507908B3}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{63989D54-5A3D-4A9C-AC66-C09DE1ED62D7}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
-    Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olivier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of data (used by the program)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F07F8B9F-9636-4E02-8985-66F5512C7AEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Olivier:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -133,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>X</t>
   </si>
@@ -204,9 +284,6 @@
     <t>Danger for the motors if less than 1500 us, using this speed is not recommanded</t>
   </si>
   <si>
-    <t>Higher  = slower</t>
-  </si>
-  <si>
     <t>This ws is for parameters only ! Know what you're doing !</t>
   </si>
   <si>
@@ -228,9 +305,6 @@
     <t>4 : Roll Wrist</t>
   </si>
   <si>
-    <t>5 : Gripper</t>
-  </si>
-  <si>
     <t>straight up :</t>
   </si>
   <si>
@@ -238,6 +312,9 @@
   </si>
   <si>
     <t>Low value  = faster</t>
+  </si>
+  <si>
+    <t>Gripper %</t>
   </si>
 </sst>
 </file>
@@ -247,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,18 +358,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0CA1A6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFDAE3E3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -346,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -580,19 +645,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
@@ -628,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,9 +727,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +748,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,37 +778,25 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,18 +808,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,24 +841,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -883,212 +959,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <u/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
@@ -1138,34 +1009,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike/>
-        <u val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill>
           <bgColor theme="5"/>
@@ -1215,6 +1059,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -1240,71 +1105,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border>
@@ -1351,6 +1151,28 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1379,48 +1201,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill>
           <bgColor theme="5"/>
@@ -1470,6 +1251,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -1513,7 +1315,85 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
         <patternFill>
           <bgColor theme="5"/>
@@ -1521,38 +1401,42 @@
       </fill>
       <border>
         <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <u/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="4"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border>
         <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
+          <color theme="0" tint="-0.24994659260841701"/>
         </bottom>
       </border>
     </dxf>
@@ -1560,9 +1444,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2D2D"/>
       <color rgb="FFFF8989"/>
       <color rgb="FFFF5757"/>
-      <color rgb="FFFF2D2D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1577,9 +1461,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Olivier Daniel" id="{C4875507-E525-48C3-8757-E8D996C138A4}" userId="a91bb153b7be2ca3" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1843,238 +1725,421 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2025-05-02T21:46:07.71" personId="{C4875507-E525-48C3-8757-E8D996C138A4}" id="{B17151CA-6A87-4AA5-B035-E1DD3AE5C46E}">
-    <text>Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2025-05-02T21:46:07.71" personId="{C4875507-E525-48C3-8757-E8D996C138A4}" id="{48C806BC-EA8E-400D-8E90-CA3F507908B3}">
-    <text>Danger for the motors if the speed is less than 1500 us, using this speed is not recommanded !</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A313FD-D527-40A0-843E-D9154988319A}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="32" customWidth="1"/>
-    <col min="4" max="9" width="17.28515625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="25" customWidth="1"/>
-    <col min="12" max="15" width="17.28515625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="37"/>
-    <col min="18" max="18" width="12.42578125" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="12" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="30" customWidth="1"/>
+    <col min="4" max="9" width="17.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="23" customWidth="1"/>
+    <col min="12" max="15" width="17.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="9" style="59" customWidth="1"/>
+    <col min="17" max="27" width="9" style="33" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="44" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="46" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <f>COUNTA(A4:A99)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="36"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="30"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="30"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:P1"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="J">
-      <formula>NOT(ISERROR(SEARCH("J",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4:B100">
-    <cfRule type="expression" dxfId="28" priority="6">
-      <formula xml:space="preserve"> $A4 = ""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A4:O100">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula xml:space="preserve"> $A4 = ""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{F19F6381-EC72-465C-868B-7ADA3EC4543A}">
-            <xm:f>$A4 = Parameters!$B$10</xm:f>
+          <x14:cfRule type="expression" priority="6" id="{DD904684-AAC4-4A0E-8B92-BEC93A420D51}">
+            <xm:f>$A4 = Parameters!$B$11</xm:f>
             <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B4:B100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{091FA294-6F73-4BE7-BFD9-774FC26FA7A8}">
-            <xm:f>$A4 =Parameters!$B$11</xm:f>
-            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
               <fill>
                 <patternFill>
                   <bgColor theme="5"/>
@@ -2096,64 +2161,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B4:J7 B9:J12 B14:J100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{839E9A02-E0C9-4C4D-AF6D-4E99812EA4F7}">
-            <xm:f>$A8 =Parameters!$B$11</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B8:J8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{D274143A-4D7F-4C33-9AD8-F98D37E4AECF}">
-            <xm:f>$A13 =Parameters!$B$11</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B13:J13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{2B812760-F23F-4DCF-8161-D041B09B7615}">
+          <x14:cfRule type="expression" priority="7" id="{4DA96EBB-A748-4009-8727-BEF06B596489}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$11</xm:f>
             <x14:dxf>
               <font>
@@ -2184,10 +2192,35 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:J100</xm:sqref>
+          <xm:sqref>D4:J100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{46D9C417-B18C-421E-8B7F-C53A8425C626}">
+          <x14:cfRule type="expression" priority="3" id="{953C4827-94F5-4F8D-BA10-1B9352BFE150}">
+            <xm:f>$A4 = Parameters!$B$10</xm:f>
+            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{B35FA0A5-0CBA-4D1B-94D2-E53FE259EFA7}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -2218,7 +2251,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{860D1F9E-0E22-44A2-9F25-68D7CEF9D328}">
+          <xm:sqref>K4:O100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{AA3D9A72-C0D7-427C-9355-9A110570744B}">
             <xm:f>$A4 = Parameters!$B$10</xm:f>
             <x14:dxf>
               <fill>
@@ -2242,19 +2278,43 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K4:P100</xm:sqref>
+          <x14:cfRule type="expression" priority="5" id="{16FAF6FC-D15A-4353-9771-D4B009CC491A}">
+            <xm:f>$A4 =Parameters!$B$11</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:C100</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{AF0FC175-AF9D-410A-A695-3DA00C882AA5}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F2D3EABA-B9B4-4C6E-A0A5-1C1E1403C805}">
           <x14:formula1>
             <xm:f>Parameters!$B$10:$B$19</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{254FE131-DDE6-4404-BC96-5B52A46447D9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3139622-7480-4804-AE12-518E338EDE23}">
           <x14:formula1>
             <xm:f>Parameters!$D$10:$D$24</xm:f>
           </x14:formula1>
@@ -2274,7 +2334,7 @@
   <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,12 +2349,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
-        <v>24</v>
+      <c r="B2" s="46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
+      <c r="B3" s="47"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H7" s="15" t="s">
@@ -2307,13 +2367,13 @@
         <v>2</v>
       </c>
       <c r="K7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>3</v>
@@ -2323,12 +2383,12 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="45"/>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -2454,10 +2514,10 @@
       <c r="D18" s="7">
         <v>2000</v>
       </c>
-      <c r="F18" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="59"/>
+      <c r="F18" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
@@ -2467,8 +2527,8 @@
       <c r="D19" s="7">
         <v>1500</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="13">
@@ -2477,8 +2537,8 @@
       <c r="D20" s="12">
         <v>1300</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13">
@@ -2487,8 +2547,8 @@
       <c r="D21" s="12">
         <v>1100</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="13">
@@ -2497,10 +2557,10 @@
       <c r="D22" s="12">
         <v>900</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13">
@@ -2509,8 +2569,8 @@
       <c r="D23" s="12">
         <v>700</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14">
@@ -2519,17 +2579,17 @@
       <c r="D24" s="12">
         <v>500</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="40"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="40"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="40"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
@@ -2569,755 +2629,835 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0979594E-C377-4FE4-9F06-6E9D9D966A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEC12D-83F7-4650-9041-6D30AE15ED71}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="32" customWidth="1"/>
-    <col min="4" max="9" width="17.28515625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="25" customWidth="1"/>
-    <col min="12" max="15" width="17.28515625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="37"/>
-    <col min="18" max="18" width="12.42578125" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="12" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="30" customWidth="1"/>
+    <col min="4" max="9" width="17.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="23" customWidth="1"/>
+    <col min="12" max="15" width="17.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="9" style="59" customWidth="1"/>
+    <col min="17" max="27" width="9" style="33" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="44" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <f>COUNTA(A4:A99)</f>
         <v>22</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="21">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="22">
+      <c r="B4" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.754</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
         <v>160</v>
       </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="31">
+        <v>90</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="B6" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6" s="31">
+        <v>90</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
         <v>-180</v>
       </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="23">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
+      <c r="B8" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
         <v>90</v>
       </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="23">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="23">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
+      <c r="B10" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
         <v>-75</v>
       </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
-        <v>0</v>
-      </c>
-      <c r="P11" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
+      <c r="B12" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
         <v>90</v>
       </c>
-      <c r="N12" s="23">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="23">
-        <v>0</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
+      <c r="B14" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
         <v>-90</v>
       </c>
-      <c r="N14" s="23">
-        <v>0</v>
-      </c>
-      <c r="O14" s="23">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="23">
-        <v>0</v>
-      </c>
-      <c r="O15" s="23">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="B15" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="23">
+      <c r="B16" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
         <v>90</v>
       </c>
-      <c r="O16" s="23">
-        <v>0</v>
-      </c>
-      <c r="P16" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
-      <c r="N17" s="23">
-        <v>0</v>
-      </c>
-      <c r="O17" s="23">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
-        <v>0</v>
-      </c>
-      <c r="N18" s="23">
+      <c r="B18" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
         <v>-90</v>
       </c>
-      <c r="O18" s="23">
-        <v>0</v>
-      </c>
-      <c r="P18" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <v>0</v>
-      </c>
-      <c r="N19" s="23">
-        <v>0</v>
-      </c>
-      <c r="O19" s="23">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="B19" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <v>0</v>
-      </c>
-      <c r="N20" s="23">
-        <v>0</v>
-      </c>
-      <c r="O20" s="23">
+      <c r="B20" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
         <v>90</v>
       </c>
-      <c r="P20" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="23">
-        <v>0</v>
-      </c>
-      <c r="N21" s="23">
-        <v>0</v>
-      </c>
-      <c r="O21" s="23">
-        <v>0</v>
-      </c>
-      <c r="P21" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="B21" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="23">
-        <v>0</v>
-      </c>
-      <c r="O22" s="23">
+      <c r="B22" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
         <v>-90</v>
       </c>
-      <c r="P22" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
-        <v>0</v>
-      </c>
-      <c r="N24" s="23">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23">
-        <v>0</v>
-      </c>
-      <c r="P24" s="27">
+      <c r="B24" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="25">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="D24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23">
-        <v>0</v>
-      </c>
-      <c r="O25" s="23">
-        <v>0</v>
-      </c>
-      <c r="P25" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="B25" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="7">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:O2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="J">
-      <formula>NOT(ISERROR(SEARCH("J",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
+  <conditionalFormatting sqref="B4:B100">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+      <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B100">
-    <cfRule type="expression" dxfId="17" priority="6">
+  <conditionalFormatting sqref="A4:O100">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula xml:space="preserve"> $A4 = ""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
-      <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,36 +3467,10 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{6C91C5FF-EE23-4966-A829-9339B3044604}">
-            <xm:f>$A4 = Parameters!$B$10</xm:f>
+          <x14:cfRule type="expression" priority="12" id="{633F0575-ACF8-49EE-AF03-46145884E9BE}">
+            <xm:f>$A4 = Parameters!$B$11</xm:f>
             <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B4:B100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{778370D4-FDC5-4DDA-B624-FC0AE1561647}">
-            <xm:f>$A4 =Parameters!$B$11</xm:f>
-            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
               <fill>
                 <patternFill>
                   <bgColor theme="5"/>
@@ -3378,10 +3492,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B4:J100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{5F6D8BC9-9B32-4F1C-B517-CE88675C8A6E}">
+          <x14:cfRule type="expression" priority="13" id="{25E84559-AE7E-4DFD-8EF6-E764716EB725}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$11</xm:f>
             <x14:dxf>
               <font>
@@ -3412,10 +3523,35 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:J100</xm:sqref>
+          <xm:sqref>D4:J100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{4643EA80-FF11-4B88-831F-B10CEADD7FFA}">
+          <x14:cfRule type="expression" priority="6" id="{C08A09FA-DC6D-49DE-B374-F2B29AD382A3}">
+            <xm:f>$A4 = Parameters!$B$10</xm:f>
+            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{40EBE31B-FE40-4D22-AD8D-72598123E534}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -3446,7 +3582,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{8873C4D2-7502-4E61-8287-C3B7FCA3867F}">
+          <xm:sqref>K4:O100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{7F691C87-F7BE-42F0-83D3-8483B72B0034}">
             <xm:f>$A4 = Parameters!$B$10</xm:f>
             <x14:dxf>
               <fill>
@@ -3470,23 +3609,47 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K4:P100</xm:sqref>
+          <x14:cfRule type="expression" priority="11" id="{B9051BD8-045D-45B0-942C-445ED23AD7B7}">
+            <xm:f>$A4 =Parameters!$B$11</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:C100</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{E1D502B8-61E9-4BC6-876D-31165AFC0805}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFF6B1E1-8F56-4C6F-BD9E-5AD93B263BB7}">
+          <x14:formula1>
+            <xm:f>Parameters!$D$10:$D$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{6F95BC1D-37AD-43CD-88DA-687C1335249C}">
           <x14:formula1>
             <xm:f>Parameters!$B$10:$B$19</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8EF1A892-87BB-40C3-99E6-BCF51E952B95}">
-          <x14:formula1>
-            <xm:f>Parameters!$D$10:$D$24</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3495,203 +3658,428 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8263C-A173-4392-A18C-0F1B1E887893}">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D705DDFC-8101-4774-B830-6F569A7F2726}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="32" customWidth="1"/>
-    <col min="4" max="9" width="17.28515625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="25" customWidth="1"/>
-    <col min="12" max="15" width="17.28515625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="37"/>
-    <col min="18" max="18" width="12.42578125" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="12" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="30" customWidth="1"/>
+    <col min="4" max="9" width="17.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="23" customWidth="1"/>
+    <col min="12" max="15" width="17.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="9" style="59" customWidth="1"/>
+    <col min="17" max="27" width="9" style="33" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="44" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="46" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
+        <f>COUNTA(A4:A99)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1500</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
         <v>0.1</v>
       </c>
-      <c r="D4" s="30">
+      <c r="E4" s="28">
         <v>0.08</v>
       </c>
-      <c r="E4" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="28">
         <v>255</v>
       </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="36"/>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="30"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="30"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="30"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:J1"/>
+  <mergeCells count="7">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="J">
-      <formula>NOT(ISERROR(SEARCH("J",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="L">
-      <formula>NOT(ISERROR(SEARCH("L",A1)))</formula>
+  <conditionalFormatting sqref="B4:B100">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
+      <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B100">
-    <cfRule type="expression" dxfId="8" priority="16">
+  <conditionalFormatting sqref="A4:O100">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula xml:space="preserve"> $A4 = ""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="lessThan">
-      <formula>1500</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3701,36 +4089,10 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" id="{0F20BCBC-974E-44D1-8B93-60BB17FEE777}">
-            <xm:f>$A4 = Parameters!$B$10</xm:f>
+          <x14:cfRule type="expression" priority="8" id="{EA943826-F720-4414-A9D0-A15DB49A2C8C}">
+            <xm:f>$A4 = Parameters!$B$11</xm:f>
             <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="4"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B4:B100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{013652DB-E0F7-4E29-93CA-C35343001DFD}">
-            <xm:f>$A4 =Parameters!$B$11</xm:f>
-            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
               <fill>
                 <patternFill>
                   <bgColor theme="5"/>
@@ -3752,64 +4114,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B4:J7 B9:J12 B14:J100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{5246FEA1-96E1-4683-8875-87BABDBE96F2}">
-            <xm:f>$A8 =Parameters!$B$11</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B8:J8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{D1A70CDE-9503-404E-B729-4D8183AE077E}">
-            <xm:f>$A13 =Parameters!$B$11</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5"/>
-                </patternFill>
-              </fill>
-              <border>
-                <left style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </left>
-                <right style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </right>
-                <top style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </top>
-                <bottom style="thin">
-                  <color theme="0" tint="-0.24994659260841701"/>
-                </bottom>
-              </border>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B13:J13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{C3922C19-33CC-403E-9D52-053640E1D0B9}">
+          <x14:cfRule type="expression" priority="9" id="{08EBB049-A336-47D2-B14B-BAFE2566089E}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$11</xm:f>
             <x14:dxf>
               <font>
@@ -3840,10 +4145,35 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:J100</xm:sqref>
+          <xm:sqref>D4:J100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{4834C13D-EEB5-4F67-A740-8C0E9FFD000D}">
+          <x14:cfRule type="expression" priority="5" id="{7E5F9177-41A1-4ABF-A5D8-28EC2659D3B4}">
+            <xm:f>$A4 = Parameters!$B$10</xm:f>
+            <x14:dxf>
+              <numFmt numFmtId="164" formatCode="0.000"/>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{67A9E630-CF96-4885-A1A5-B291FFA0E0E5}">
             <xm:f>$A4 &lt;&gt; Parameters!$B$10</xm:f>
             <x14:dxf>
               <font>
@@ -3874,7 +4204,10 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{FA3DF510-0DEE-4307-B1FF-FF3AF08D6A80}">
+          <xm:sqref>K4:O100</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{993EBE17-7B17-4A41-A7AB-6DED2BA26D70}">
             <xm:f>$A4 = Parameters!$B$10</xm:f>
             <x14:dxf>
               <fill>
@@ -3898,19 +4231,43 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K4:P100</xm:sqref>
+          <x14:cfRule type="expression" priority="7" id="{7FB54212-FDEA-442C-A430-0BC4E7B856BF}">
+            <xm:f>$A4 =Parameters!$B$11</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </left>
+                <right style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </right>
+                <top style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </top>
+                <bottom style="thin">
+                  <color theme="0" tint="-0.24994659260841701"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:C100</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F659BDA0-F763-4FBE-AF93-12ECE11E86A2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDD90669-2710-4425-A841-5E1F526308C4}">
           <x14:formula1>
             <xm:f>Parameters!$D$10:$D$24</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{138A1204-1E36-4518-AE5F-9958F02912EC}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{223795F9-27DA-4096-A7EE-A416736262BA}">
           <x14:formula1>
             <xm:f>Parameters!$B$10:$B$19</xm:f>
           </x14:formula1>
